--- a/Documentação/backlog - projeto individual.xlsx
+++ b/Documentação/backlog - projeto individual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e58d7da8e46fce06/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e58d7da8e46fce06/Documents/Projeto Individual/Projeto-Individual/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{93AA1584-AF05-4273-826F-6AB6D10B8822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01724119-5E12-48C8-B598-3931BD78225C}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{93AA1584-AF05-4273-826F-6AB6D10B8822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04CC0ECC-74D8-4E2E-AF8A-7C2DFE2BF22A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4CC2DE7-E563-4D6F-9DC0-A08D4F8D9142}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>REQUISITO</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Importante</t>
   </si>
   <si>
-    <t>3      5      8      13        21</t>
-  </si>
-  <si>
     <t>Fazendo</t>
   </si>
   <si>
@@ -195,6 +192,12 @@
   </si>
   <si>
     <t>Slides para apresentação do projeto para a banca</t>
+  </si>
+  <si>
+    <t>Recuperação de Senha</t>
+  </si>
+  <si>
+    <t>Permite que o usuário recupere a senha em caso de esquecer ou perder</t>
   </si>
 </sst>
 </file>
@@ -285,11 +288,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,7 +305,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,6 +323,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A51A07E-A97C-4BA5-8704-E4EEBC8413D2}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,499 +666,514 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="7">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="C3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="7">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7">
-        <v>3</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>13</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="7">
-        <v>3</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="F22" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7">
-        <v>8</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="7">
-        <v>3</v>
-      </c>
-      <c r="E8" s="7">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="7">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7">
-        <v>8</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7">
-        <v>8</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3</v>
-      </c>
-      <c r="E12" s="7">
-        <v>8</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7">
-        <v>8</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7">
-        <v>13</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="7">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7">
-        <v>5</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3</v>
-      </c>
-      <c r="E16" s="7">
-        <v>5</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="7">
-        <v>3</v>
-      </c>
-      <c r="E17" s="7">
-        <v>21</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>5</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3</v>
-      </c>
-      <c r="E19" s="7">
-        <v>13</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <v>5</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
-        <v>3</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="7">
-        <v>3</v>
-      </c>
-      <c r="E22" s="7">
-        <v>8</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
-        <v>45</v>
+      <c r="F23" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1160,5 +1181,6 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>